--- a/medicine/Hématologie/Prothrombine/Prothrombine.xlsx
+++ b/medicine/Hématologie/Prothrombine/Prothrombine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La prothrombine ou facteur II est une protéine de la coagulation sanguine.
@@ -516,9 +528,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après que d'autres ont décrit les fibrinogènes et la fibrine, Alexander Schmidt a postulé et montré l'existence d'une enzyme qui convertit le fibrinogène en fibrine (en 1872)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après que d'autres ont décrit les fibrinogènes et la fibrine, Alexander Schmidt a postulé et montré l'existence d'une enzyme qui convertit le fibrinogène en fibrine (en 1872).
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La thrombine est produite par le clivage de deux sites de la prothrombine par le facteur Stuart activé (ou Xa). 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La thrombine est produite par le clivage de deux sites de la prothrombine par le facteur Stuart activé (ou Xa). 
 Cette protéase à sérine (EC 3.4.21.5) catalyse la transformation de fibrinogène en fibrine. 
 Elle active également les facteurs VII (de la voie extrinsèque), V et VIII (cofacteurs des facteurs Xa et IXa respectivement) et XIII.
 Il s'agit d'un facteur « vitamine K dépendant ». La prise d'anti-vitamine K (AVK), le déficit en vitamine K entraîne un déficit en facteur II se traduisant par une augmentation du temps de céphaline activée (TCA) et du temps de Quick (diminution du taux de prothrombine, augmentation de l’International Normalized Ratio (INR).
@@ -559,10 +575,7 @@
 Certaines mutations du facteur V sont responsables d'une résistance à la protéine C activée et donc d'un état de thrombophilie (état pro-coagulant). Le facteur V ainsi muté est appelé « facteur V de Leyden » :
 Effet pro-thrombotique par stimulation du facteur VII tissulaire ;
 Stimulation de l'extravasation au niveau de la surface endothéliale ;
-Effet pro-inflammatoire : stimule la sécrétion d'IL-6 et MCD1.
-Rétroaction négative
-La thrombine est inactivée dans l'organisme par une autre enzyme, l'antithrombine (serpine, faisant partie des inhibiteurs de la coagulation).
-</t>
+Effet pro-inflammatoire : stimule la sécrétion d'IL-6 et MCD1.</t>
         </is>
       </c>
     </row>
@@ -587,10 +600,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biochimie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rétroaction négative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thrombine est inactivée dans l'organisme par une autre enzyme, l'antithrombine (serpine, faisant partie des inhibiteurs de la coagulation).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prothrombine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prothrombine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activation anormale de la prothrombine induit des phénomènes de coagulations pathologiques. 
 Quelques maladies rares qui semblent toujours liées à une mutation du gène 20210A, impliquant la prothrombine ont été décrites, dont :
@@ -605,31 +657,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Prothrombine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prothrombine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation pour la recherche et le génie génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de sa spécificité protéolytique élevée, la thrombine est utilisée comme outil biochimique. 
 Le site de clivage de la thrombine (Leu-Val-Pro-Arg-Gly-Ser) est généralement inclus dans la région de liaison de la protéine de fusion (protéine recombinante) artificiellement construites. 
@@ -638,76 +692,80 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Prothrombine</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prothrombine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Usages en médecine et chirurgie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des complexes de Prothrombine concentrée en plasma frais congelé (fresh frozen plasma ou FFP ou Complexe prothrombique humain), sont vendus (ex. : sous le nom d'Octaplex, qui contient aussi de l'héparine ou Ocplex), et utilisés comme facteurs de coagulation riches en prothrombine, qui peuvent être utilisés pour corriger certaines lacunes (généralement dû à des médicaments ou à une intoxication par anticoagulant) de la prothrombine. Ces produits contiennent les protéines suivantes : facteur II de coagulation, humain, facteur VII de coagulation, humain, facteur IX de coagulation, humain, facteur X de coagulation, humain, protéine C et protéine S[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des complexes de Prothrombine concentrée en plasma frais congelé (fresh frozen plasma ou FFP ou Complexe prothrombique humain), sont vendus (ex. : sous le nom d'Octaplex, qui contient aussi de l'héparine ou Ocplex), et utilisés comme facteurs de coagulation riches en prothrombine, qui peuvent être utilisés pour corriger certaines lacunes (généralement dû à des médicaments ou à une intoxication par anticoagulant) de la prothrombine. Ces produits contiennent les protéines suivantes : facteur II de coagulation, humain, facteur VII de coagulation, humain, facteur IX de coagulation, humain, facteur X de coagulation, humain, protéine C et protéine S.
 Il peut également soigner des saignements incoercibles à la suite d'un empoisonnement par un pesticide de type Anti Vitamine K comme le coumaphène (ou warfarine ; C19H16O4 par exemple), présent dans de nombreux rodenticides.
 L'héparine augmente l'affinité de l'antithrombine à la thrombine (ainsi que facteur X). 
 Une nouvelle classe de médicaments est constituée d'inhibiteurs directs de la thrombine, qui inhibent directement la thrombine en se liant à son site actif.
 De la thrombine recombinante est disponible sous forme de poudre pour reconstitution en solution aqueuse. 
-Elle peut être appliquée en usage externe (topique) durant la chirurgie, comme aide à l'hémostase ou pour contrôler les saignements mineurs à partir de vaisseaux capillaires et de veinules, mais elle est inefficace et non indiquée pour des hémorragies artérielle plus importantes[6],[7],[8], produit et vendu par ZymoGenetics[9] aux États-Unis sous le nom de Recothrom.
+Elle peut être appliquée en usage externe (topique) durant la chirurgie, comme aide à l'hémostase ou pour contrôler les saignements mineurs à partir de vaisseaux capillaires et de veinules, mais elle est inefficace et non indiquée pour des hémorragies artérielle plus importantes produit et vendu par ZymoGenetics aux États-Unis sous le nom de Recothrom.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Prothrombine</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prothrombine</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation agroalimentaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette enzyme du plasma sanguin animal facilement récupéré en abattoir est également utilisée, aux États-Unis notamment, par l'industrie agroalimentaire comme « colle » pour agglomérer divers morceaux de viande (éventuellement provenant d'espèces ou races différentes) ou chutes de viande pour produire des pièces de viande ressemblant à de vrais morceaux de viande, ou pour produire des produits nouveaux… avec cependant des risques accrus de fraude, de complication de la traçabilité (« de la fourche à la fourchette », selon le principe retenu en Europe) ou d'intégration involontaire dans le cœur de pièces de viande de morceaux déjà oxydés ou attaqués par des bactéries, éventuellement thermorésistantes, qui risquent alors plus d'échapper aux effets désinfectants de la cuisson. 
-La thrombine est vendue sous la marque Fibrimex comme « colle à viandes », viandes de porc ou de bovin essentiellement, pour notamment produire une « pâte de viande » (expression utilisée[10] en Suède où selon le fabricant, cette molécule pourrait faciliter la réutilisation de chutes de viandes pour en faire de nouveaux morceaux de viande ou de viandes mixtes (par exemple en mélangeant harmonieusement des chutes de viandes différentes et de poisson), ce qui permettrait à l'industrie alimentaire de vendre plus cher des déchets ou chutes de viandes, tout en réduisant ainsi les coûts de production[11] et en augmentant la rétention d'humidité de la viande[11] (apparence plus saignante à cœur, et meilleure résistance à la congélation[11])).
+La thrombine est vendue sous la marque Fibrimex comme « colle à viandes », viandes de porc ou de bovin essentiellement, pour notamment produire une « pâte de viande » (expression utilisée en Suède où selon le fabricant, cette molécule pourrait faciliter la réutilisation de chutes de viandes pour en faire de nouveaux morceaux de viande ou de viandes mixtes (par exemple en mélangeant harmonieusement des chutes de viandes différentes et de poisson), ce qui permettrait à l'industrie alimentaire de vendre plus cher des déchets ou chutes de viandes, tout en réduisant ainsi les coûts de production et en augmentant la rétention d'humidité de la viande (apparence plus saignante à cœur, et meilleure résistance à la congélation)).
 Le principal produit de substitution de type « colle à viande » est à base de transglutaminase, une enzyme (EC 2.3.2.13) qui catalyse la formation de liaisons covalentes entre des groupements amines libres (ex. : lysines) et le groupement gamma-carboxamide des glutamines. Les liaisons formées par la transglutaminase montrent une grande résistance à la protéolyse. Les transglutaminases, vendues par le groupe japonais Ajinomoto et, par exemple, utilisées pour le surimi ou des jambons reconstitués, sont alors vendues sous le nom Activa (TG).
 Dans les deux cas (prothrombine et transglutaminases), les poissons, crustacés dont les crabes et les homards peuvent aussi faire l'objet de morceaux de chair reconstituée.
-Jan Bertoft, secrétaire général de Sveriges Konsumenter, a pour sa part considéré qu'il existait un réel danger d'induire en erreur les consommateurs[10], faute d'étiquetage et de traçabilité renseignant de manière crédible l'origine des morceaux, la date de leur découpe, leur qualité, etc.
-Un rapport commandé par l'Autorité européenne de sécurité des aliments avait cinq ans  auparavant (en 2005) conclu à l'innocuité de la thrombine pour la santé humaine, mais sans convaincre une partie des législateurs européens, certains ayant même pointé un manque d'indépendance des experts interrogés ou siégeant au sein de cette instance. Outre un risque d'introduction de microorganismes au cœur de la viande durant le collage, « l'absence d'étude sur les conditions d'extraction du plasma sanguin » laisse encore planer un doute sur une autre source potentielle de contamination bactériologique des agglomérats de viandes collées à la thrombine[12].
-La Commission européenne a failli la faire figurer dans la liste des additifs alimentaires autorisés dans les 27 États-membres, mais ce projet a été abandonné. Un des motifs du rejet est qu'une autorisation de ce produit aurait été contraire à un règlement communautaire : règlement 1333/2008[13] qui stipule que toute législation sur les aliments doit prévenir « le risque de tromperie du consommateur ».
-Sous contrôle scientifique, en termes d'appréciation qualitative, les consommateurs ne semblent pas faire de différence entre l'usage de thrombine et celui de transglutaminase[14].
+Jan Bertoft, secrétaire général de Sveriges Konsumenter, a pour sa part considéré qu'il existait un réel danger d'induire en erreur les consommateurs, faute d'étiquetage et de traçabilité renseignant de manière crédible l'origine des morceaux, la date de leur découpe, leur qualité, etc.
+Un rapport commandé par l'Autorité européenne de sécurité des aliments avait cinq ans  auparavant (en 2005) conclu à l'innocuité de la thrombine pour la santé humaine, mais sans convaincre une partie des législateurs européens, certains ayant même pointé un manque d'indépendance des experts interrogés ou siégeant au sein de cette instance. Outre un risque d'introduction de microorganismes au cœur de la viande durant le collage, « l'absence d'étude sur les conditions d'extraction du plasma sanguin » laisse encore planer un doute sur une autre source potentielle de contamination bactériologique des agglomérats de viandes collées à la thrombine.
+La Commission européenne a failli la faire figurer dans la liste des additifs alimentaires autorisés dans les 27 États-membres, mais ce projet a été abandonné. Un des motifs du rejet est qu'une autorisation de ce produit aurait été contraire à un règlement communautaire : règlement 1333/2008 qui stipule que toute législation sur les aliments doit prévenir « le risque de tromperie du consommateur ».
+Sous contrôle scientifique, en termes d'appréciation qualitative, les consommateurs ne semblent pas faire de différence entre l'usage de thrombine et celui de transglutaminase.
 </t>
         </is>
       </c>
